--- a/test2/协议v0.1.xlsx
+++ b/test2/协议v0.1.xlsx
@@ -370,10 +370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -381,14 +381,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,23 +398,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +418,52 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,38 +482,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -491,14 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +519,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -537,25 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +609,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,25 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,43 +693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1130,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,11 +1182,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,46 +1211,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,137 +1229,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1413,11 +1413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,21 +1421,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1453,11 +1439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,20 +1452,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1835,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1939,10 +1911,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="48"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:19">
@@ -1970,11 +1942,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="4" t="s">
         <v>19</v>
       </c>
@@ -2011,18 +1983,18 @@
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2036,15 +2008,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2146,10 +2118,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:15">
@@ -2177,11 +2149,11 @@
         <v>7</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2214,11 +2186,11 @@
       <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="8" t="s">
         <v>10</v>
       </c>
@@ -2235,10 +2207,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2360,10 +2332,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
@@ -2562,25 +2534,25 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51">
+      <c r="J22" s="39"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="24">
         <v>180</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="54"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="43"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2625,7 +2597,7 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
-      <c r="AF23" s="67"/>
+      <c r="AF23" s="55"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="11" t="s">
@@ -2702,10 +2674,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
@@ -2782,10 +2754,10 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="48"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
@@ -2900,10 +2872,10 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="48"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="2"/>
       <c r="L33" s="4" t="s">
         <v>70</v>
@@ -2943,15 +2915,15 @@
       <c r="K34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="54"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="2" t="s">
         <v>8</v>
       </c>
@@ -2984,15 +2956,15 @@
       <c r="K35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="54"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="43"/>
       <c r="S35" s="2" t="s">
         <v>14</v>
       </c>
@@ -3006,20 +2978,20 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="48"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="52" t="s">
+      <c r="L36" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="54"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19">
@@ -3282,19 +3254,19 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="48"/>
+      <c r="J40" s="39"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
       <c r="T40" s="4">
         <v>180</v>
       </c>
@@ -3466,10 +3438,10 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="48"/>
+      <c r="J44" s="39"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
         <v>85</v>
@@ -3499,171 +3471,171 @@
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="55"/>
+      <c r="Q45" s="44"/>
     </row>
     <row r="46" ht="15" spans="1:18">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="56"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="44"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="57" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="58"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="46"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="28">
+      <c r="A49" s="25">
         <v>4412</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R49" s="58"/>
+      <c r="R49" s="46"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="R50" s="58"/>
+      <c r="E50" s="11"/>
+      <c r="R50" s="46"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="31"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="33"/>
-      <c r="R51" s="58"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="11"/>
+      <c r="R51" s="46"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="31"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="R52" s="58"/>
+      <c r="E52" s="11"/>
+      <c r="R52" s="46"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="31"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="59"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="47"/>
     </row>
     <row r="54" ht="15" spans="1:18">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="60"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="48"/>
     </row>
     <row r="55" ht="15" spans="1:1">
       <c r="A55" t="s">
@@ -3671,100 +3643,100 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="62" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="63"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="51"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="42">
+      <c r="A58" s="36">
         <v>4412</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="63"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="51"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="37" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="63"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="46"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="66"/>
+      <c r="E59" s="5"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="51"/>
+    </row>
+    <row r="60" ht="15" spans="1:18">
+      <c r="A60" s="37"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="54"/>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
